--- a/src/images/Kolathur.xlsx
+++ b/src/images/Kolathur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9024" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="591">
   <si>
     <t>ImageURL</t>
   </si>
@@ -30,370 +30,13 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>/Categories/image_77.jpg</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>/Stationery</t>
-  </si>
-  <si>
-    <t>/Categories/image_2.jpg</t>
-  </si>
-  <si>
-    <t>Air Freshener</t>
-  </si>
-  <si>
-    <t>/sports</t>
-  </si>
-  <si>
-    <t>/Categories/image_3.jpg</t>
-  </si>
-  <si>
-    <t>Anklet Chain</t>
-  </si>
-  <si>
-    <t>/Test1</t>
-  </si>
-  <si>
-    <t>/Categories/image_4.jpg</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts</t>
-  </si>
-  <si>
-    <t>/Categories/image_1.jpg</t>
-  </si>
-  <si>
-    <t>Attar &amp; Perfume</t>
-  </si>
-  <si>
-    <t>/Categories/image_7.jpg</t>
-  </si>
-  <si>
-    <t>Baby Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_8.jpg</t>
-  </si>
-  <si>
-    <t>Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_9.jpg</t>
-  </si>
-  <si>
-    <t>Bangles</t>
-  </si>
-  <si>
-    <t>/Categories/image_10.jpg</t>
-  </si>
-  <si>
-    <t>Bath Soap</t>
-  </si>
-  <si>
-    <t>/Categories/image_12.jpg</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>/Categories/image_13.jpg</t>
-  </si>
-  <si>
-    <t>Carpet</t>
-  </si>
-  <si>
-    <t>/Categories/image_14.jpg</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>/Categories/image_15.jpg</t>
+    <t>/Categories/image_16.jpg</t>
   </si>
   <si>
     <t>Chart Sticker</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>/Categories/image_18.jpg</t>
-  </si>
-  <si>
-    <t>Clock &amp; Gift</t>
-  </si>
-  <si>
-    <t>/Categories/image_19.jpg</t>
-  </si>
-  <si>
-    <t>College Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_20.jpg</t>
-  </si>
-  <si>
-    <t>Cookware &amp; Dinning</t>
-  </si>
-  <si>
-    <t>/Categories/image_21.jpg</t>
-  </si>
-  <si>
-    <t>Cosmatic</t>
-  </si>
-  <si>
-    <t>/Categories/image_25.jpg</t>
-  </si>
-  <si>
-    <t>Earrings</t>
-  </si>
-  <si>
-    <t>/Categories/image_26.jpg</t>
-  </si>
-  <si>
-    <t>Educational Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_27.jpg</t>
-  </si>
-  <si>
-    <t>Electronic Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_28.jpg</t>
-  </si>
-  <si>
-    <t>Face Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_29.jpg</t>
-  </si>
-  <si>
-    <t>Feminine Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_30.jpg</t>
-  </si>
-  <si>
-    <t>Fitness &amp; Exercise</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Fragrance</t>
-  </si>
-  <si>
-    <t>/Categories/image_35.jpg</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Girls Wear</t>
-  </si>
-  <si>
-    <t>/Categories/image_37.jpg</t>
-  </si>
-  <si>
-    <t>Hair Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_38.jpg</t>
-  </si>
-  <si>
-    <t>HandBags</t>
-  </si>
-  <si>
-    <t>/Categories/image_39.jpg</t>
-  </si>
-  <si>
-    <t>Health Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_40.jpg</t>
-  </si>
-  <si>
-    <t>Heat Flask</t>
-  </si>
-  <si>
-    <t>/Categories/image_41.jpg</t>
-  </si>
-  <si>
-    <t>Herbal Product</t>
-  </si>
-  <si>
-    <t>/Categories/image_43.jpg</t>
-  </si>
-  <si>
-    <t>Home &amp; Decor</t>
-  </si>
-  <si>
-    <t>/Categories/image_44.jpg</t>
-  </si>
-  <si>
-    <t>Home Gadgets</t>
-  </si>
-  <si>
-    <t>/Categories/image_45.jpg</t>
-  </si>
-  <si>
-    <t>Jewellery</t>
-  </si>
-  <si>
-    <t>/Categories/image_47.jpg</t>
-  </si>
-  <si>
-    <t>kitchen gadgets</t>
-  </si>
-  <si>
-    <t>/Categories/image_50.jpg</t>
-  </si>
-  <si>
-    <t>Men's Wallet</t>
-  </si>
-  <si>
-    <t>/Categories/image_53.jpg</t>
-  </si>
-  <si>
-    <t>Mobile Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_55.jpg</t>
-  </si>
-  <si>
-    <t>Mobile Gadgets</t>
-  </si>
-  <si>
-    <t>Monsoon Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_57.jpg</t>
-  </si>
-  <si>
-    <t>Necklace</t>
-  </si>
-  <si>
-    <t>/Categories/image_59.jpg</t>
-  </si>
-  <si>
-    <t>Note Book</t>
-  </si>
-  <si>
-    <t>/Categories/image_60.jpg</t>
-  </si>
-  <si>
-    <t>Office Product</t>
-  </si>
-  <si>
-    <t>/Categories/image_62.jpg</t>
-  </si>
-  <si>
-    <t>Oral Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_63.jpg</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>/Categories/image_64.jpg</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>/Categories/image_65.jpg</t>
-  </si>
-  <si>
-    <t>Perfume</t>
-  </si>
-  <si>
-    <t>/Categories/image_66.jpg</t>
-  </si>
-  <si>
-    <t>Pretend Play</t>
-  </si>
-  <si>
-    <t>/Categories/image_67.jpg</t>
-  </si>
-  <si>
-    <t>Rainy  Accessories</t>
-  </si>
-  <si>
-    <t>/Categories/image_70.jpg</t>
-  </si>
-  <si>
-    <t>Remote Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_72.jpg</t>
-  </si>
-  <si>
-    <t>School Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_74.jpg</t>
-  </si>
-  <si>
-    <t>Skin Care</t>
-  </si>
-  <si>
-    <t>/Categories/image_76.jpg</t>
-  </si>
-  <si>
-    <t>Soft Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_79.jpg</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_80.jpg</t>
-  </si>
-  <si>
-    <t>Travel Bags</t>
-  </si>
-  <si>
-    <t>/Categories/image_83.jpg</t>
-  </si>
-  <si>
-    <t>Wallets</t>
-  </si>
-  <si>
-    <t>/Categories/image_85.jpg</t>
-  </si>
-  <si>
-    <t>Water Bottle</t>
-  </si>
-  <si>
-    <t>/Categories/image_86.jpg</t>
-  </si>
-  <si>
-    <t>Women's Grooming</t>
-  </si>
-  <si>
-    <t>/Categories/image_88.jpg</t>
-  </si>
-  <si>
-    <t>Women's Wallet</t>
-  </si>
-  <si>
-    <t>/Categories/image_90.jpg</t>
-  </si>
-  <si>
-    <t>Wooden Toys</t>
-  </si>
-  <si>
-    <t>/Categories/image_91.jpg</t>
-  </si>
-  <si>
-    <t>Writing &amp; Correction</t>
+    <t>/ChartSticker</t>
   </si>
   <si>
     <t>imageurl</t>
@@ -441,7 +84,7 @@
     <t>Product ID</t>
   </si>
   <si>
-    <t>Purpose/Usage</t>
+    <t>HEADING</t>
   </si>
   <si>
     <t>(Price)</t>
@@ -468,7 +111,7 @@
     <t>https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/81sDmK1AYKL._SX522_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes For School/College </t>
+    <t>Hobbies school project chart stickers</t>
   </si>
   <si>
     <t>Classmate</t>
@@ -486,28 +129,1672 @@
     <t>https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/71w769ps8nL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/81VG3MNUzZL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/813OjZgn+AL._SX522_.jpg</t>
   </si>
   <si>
+    <t>Occupations-2 School Project Chart Stickers</t>
+  </si>
+  <si>
     <t>Unrulled</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/71w769ps8nL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/81VG3MNUzZL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/813OjZgn+AL._SX523_.jpg</t>
   </si>
   <si>
+    <t>Types of Industries School Project Chart Stickers</t>
+  </si>
+  <si>
     <t>OneSide</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/71w769ps8nL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/81VG3MNUzZL._SX522_.jpg~~~~https://m.media-amazon.com/images/W/MEDIAX_792452-T1/images/I/813OjZgn+AL._SX524_.jpg</t>
   </si>
   <si>
+    <t>Types of Work school project chart stickers</t>
+  </si>
+  <si>
     <t>Checked</t>
   </si>
   <si>
+    <t>Some Occasions school Project Chart Stickers</t>
+  </si>
+  <si>
     <t>Drawing</t>
   </si>
   <si>
-    <t>Accounts</t>
+    <t>Bad Habits school Project Chart Stickers</t>
   </si>
   <si>
     <t>Accounts Checked</t>
+  </si>
+  <si>
+    <t>Our Needs School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Technician School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Good manners School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Emotions School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Hygiene Activities School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Primary and Secondary Activities School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Salt Pan School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Municipal Services School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>In The Classroom School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>First Aid chart School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Public Welfare Service School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Child Labour School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Personal Hygiene School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Bank School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Ancient Educational Centres School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Relations School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Library School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Import and Export School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Educational Development in india  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Those Who Need Our Help School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Neighbourhood school Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Physical and Mental Labour School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Good touch - Bad touch School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Family members School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>நெசவுத்தொழில் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Labour (or) workers  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Friendship School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our family School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Social Servants Sticker Project Chart Stickers.</t>
+  </si>
+  <si>
+    <t>Herbs School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Germination of Seeds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Parts Of Plant School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Shrubs School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types And Uses of Forest School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Trees - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Climbers Twiners Creepers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Plants - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Various Kinds of Plants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Roots And Stems School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Parts of Tree School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Spreading of Seeds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Variety of Leave School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Mushrooms School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Seeds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Greens School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Water Plants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Crops of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Uses of trees / Forest School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Spreading Of Seeds And Pollination School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Various Kinds Of Plants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Leaves And Fruits School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Leafy vegetables School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Afforestation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Flower School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Fruits School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Root Vegetables School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vegetables School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Agriculture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Integrated Rural Development School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Type Of Farms School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Irrigation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Type Of Agriculture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Navarathiam School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Metals And Its Uses School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Minerals And Its Uses School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Soils School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Coal And Coal Mines School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Rocks School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kinds Of Soil And Rock School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Soils And Its Crops School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mines School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Rocks And Minerals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Fast Foods School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Healthy Foods School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Junk Food School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Healthy Foods And Unhealthy Food  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cereals And Pulses School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cultivation Of Rice School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Taste School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Environment School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sweets  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Balanced Diet  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Perishable And Non-Perishable Foods  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Nutrients And Deficiency Diseases School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழக சத்தான உணவுகள் உணவுத்திருவிழா School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Snacks  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vitamin School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Foods School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pulses Seeds And Nuts School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Fungi Affected Food School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உணவே மருந்து School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Cooking School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Hospital School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Respiratory System School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Bone Joints School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Human Cells  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Digestive System School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Internal Organs School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sense Organs School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Parts Of The Body -2  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Human Skelton School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Body Organ Donation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Human Growth Stage School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Human Diseases-1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Evil Effects Of Alcohol School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mosquito And Its Disease School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Population-2 School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Population-1 School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Algae School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Handicapped School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Diseases School Project chart Stickers</t>
+  </si>
+  <si>
+    <t>Evil Effects Of Cigarettes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>கவிஞர்கள் - எழுத்தாளர்கள் - விஞ்ஞானிகள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Inventors &amp; Scientists School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Great Scientist - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Great Indian Scientists School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Invention &amp; Inventors - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Scientists - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Inventors Of Social Networkings Sites School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Travellers &amp; Explorers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Great Mathematicians   School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Olympic Games  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Crickets Players  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Games Of Bravery School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Sports  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Great Players Of India  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழக விளையாட்டுக்கள்  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cricket  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Chess  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ஒலிகள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sounds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Zoo &amp; Park School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals And Their Homes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Shelters School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Cows School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sea Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sea Shell Chart School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sea Products School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Desert Life &amp; Plants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Global Warming School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>World Desert School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Changes Around Us School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Volcanoes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Musical Instruments School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Robots School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Computer School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Usage Of Computer School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Devices Of Computer School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Visual Communications School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Phones &amp; Cell phones School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>History Of The Computer School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Means Of Communications School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of a Computers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Parts Of a Computer School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tools - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Parts Of a Bicycle School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Simple Machines School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Cycles School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Civilization Of Harappa &amp; Mohenjo - Daro School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Indus Valley Civilizations - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Arab &amp; Turkish Invasions School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Art &amp; Artchitecture Of Rajput's School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Indus Valley Civilization School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Jainism &amp; Buddhism School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>18 சித்தர்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ஆழ்வார்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vijayanagar &amp; Bahmani Kingdom School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Maratha Warrious School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vijayanagar &amp; Bahmani Kingdom Art &amp; Architecture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mughal Period School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Marathas School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kanishka, Gupta, Harsha Dynasty School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamil Kingdom School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Indian Kings - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Deccan kingdoms School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>British Period School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>South Indian Kings School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Delhi Sultanate School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>King &amp; Queens School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The French Revolution (1789) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Invaders School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>North Indian Kings (Rajput) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Indian Kings - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mughal Architechture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>British Architecture In India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Islamic Architecture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Natural Disasters School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Shapes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Abacus School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Long Short &amp; Tall Short School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Colours Chart School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Colours &amp; Shapes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Patterns School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pull &amp; Push Work School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Motion School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Heavy - Light &amp; Thick - Thin School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Big &amp; Small School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Old Stonage Man School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>பழங்கால உடைகள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Human Evolution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Life Style Between Modern Man &amp; Ancient Man School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Civilization &amp; Their Weapons School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Aliens School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Excavations School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Archaeology School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Historic Sites Of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animal Cell School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Plant cells School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Respiration In Animals &amp; Plants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Virus &amp; Bacteria School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cell Biology School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Invertebrates School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bacteria School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vertibrates School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mammals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Food Chain School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cattle Form School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Uses Of Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Food Chain &amp; Web School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals At Work School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Greek, Rome Civilization School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>China Civilization School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழ் புலவர்கள் - 3 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kadai Ezhu Vallalgal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ஐம்பெருங்காப்பியங்கள்,ஐஞ்சிறுகாப்பியங்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bhakti &amp; Sufi Movements School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>சங்ககால புலவர்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழ் கவிஞர்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>நாடக கலைஞர்கள் &amp; எழுத்தாளர்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tanjore Architecture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>English Poets School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழ் புலவர்கள் - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Water Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Deforestation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Uses Of Air School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Environmental Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Green Environment School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pollution &amp; Its Control School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Save Our World School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Land Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Air School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Noise Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Air Pollution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Deforestation &amp; Afforestation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ABCD Chart  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Numbers 1 to 100 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Triangle School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Counting Numbers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Fraction School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Roman Numeral &amp; Mathematical Symbols School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mathematics School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Flags of World Countries School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Money School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Coinage of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Foreign Currencies School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>World Stamps School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>People of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Peoples of the World School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Neighbouring Countries of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ஹிந்தி எழுத்துக்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Carnivorous Animals  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Buffalo School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Uses of Animals - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cattle Breeds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cries of Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Endangered Species Alive  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cries of Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Colourful Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Apes &amp; Monkeys School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bird Sanctuary  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Nocturnal Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Marsupials Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Beaks and Paws of Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Worm School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Community of Animals &amp; Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Scavengers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Internal and External Ears Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Birds and Their Young Ones School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vertibrate School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Honey Bee School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals in Action School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kinds of Bats School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Poultry Farming School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Omnivorous Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Metamorphosis of Lives - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animal's Food School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals Sanctuary School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Water Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Fishes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Insects - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Domestic Animal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Amphibians &amp; Reptiles School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Animals &amp; Their Babies School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Turtle &amp; Tortoise School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Camels School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Extinct Animals &amp; Birds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cold Region Life School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types of Frog School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Ants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Musicians &amp; Singers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Dances of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Classical and Folk Dance  School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>நாடக கலைகள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழர் கலாச்சாரம் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Handicrafts School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Nayak Rules in Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bangaluru School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Important Tourist Places of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Delhi School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tourist Places of India - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Hyderabad School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Religious Worship Places School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mumbai School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Medieval India ( Places, Tombs, Mosques, Forts) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Art &amp; Architecture of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Historical Places of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Palaces of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Important Places of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Temples of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sources of History School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Forts of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Gingee Fort School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Important Places of Madurai School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Chennai City School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Old Madras School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Coastal Area in Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kolkata School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>South Indian Temples School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Making of Chennai School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Monkey And The Crocodile Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Lion And The Bulls Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Fox And The Crow Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Thirsty Crow School Story Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Fox And The Grapes Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>சட்டை யாருக்கு கதை School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Who Will Bell The Cat Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Angel &amp; The Wood Cutter Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Two Friends &amp; The Bear Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Modern Inventions School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Birthday Celebration School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Greedy Dog Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Capseller And The Monkey Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Umbrella Boat Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Goats Across A Bridge Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Shepherd Boy &amp; Tiger Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Hare &amp; The Tortoise Story School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamil Letters | தமிழ் எழுத்துக்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Conjuction School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tense School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Compound Words School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Comparison School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>More-Less &amp; Higher-Smaller School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Add &amp; Even Numbers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயிர் எழுத்துக்கள்-13 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயிர் எழுத்துக்கள்-12 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Singular &amp; Plural School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Articles School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயிர், மெய் &amp; வடமொழி எழுத்துக்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயிர் எழுத்துக்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழ் உயிர் எழுத்துக்கள்-3 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Homophones School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Action Words School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Countable-Uncountable School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Noun School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Preposition School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயிர் மெய் எழுத்துக்கள் | Vowel Consonants School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Adjectives School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Opposites School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pronouns School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>தமிழ் உயிர் எழுத்துக்கள்-2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>This-That School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Collective Nouns School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>ஐந்து வகை பால்கள் School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Vowels School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>'க' வரிசை சொற்கள் School Project Chart Stickers.</t>
+  </si>
+  <si>
+    <t>Degrees Of Comparison School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>உயர்திணை - அஃறிணை School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Public Places - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Important Gardens In India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Public Places - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Virunthombal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>My Village School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bommalaattam School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Naattupura paadalgal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Village &amp; City Life School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>City &amp; Village Life School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Oorthiruvila (Gramiya Thiruvila) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Naattuppura Kalaigal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Village Panchayat School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>7 Continents School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tirunelveli School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Australia &amp; Antarctica School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Africa School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>South America School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Transport School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Air Transport School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Rail Transport School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Water Transport School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Transport &amp; Communications School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Aeroplane &amp; Its Parts School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Special Purpose Vehicles School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mounments Of The The World School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Wonders Of The World School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>The Great Sculpture &amp; Art Painting School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Historical Places Of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Day &amp; Night School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Rainbows School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Day School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Days, Months, Year School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Egypt Civilization School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Exercise School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Traffic Signals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Police Station School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our School School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>People Who Help Us School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Economic Activities - 2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tax and Its Importance School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Economic Activities - 1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Yoga School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Our Helpers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sources Of Water School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Freedom Fighters School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Chief Ministers of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>National Leaders School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamilnadu Freedom Fighters School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>World Achievers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Prime Ministers of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Politicians School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>World Poets / Writers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Leaders Framing Constitution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Life History of Gandhiji School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Social Reformers of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Freedom Struggle ( 1806 - 1947 ) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Governors of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Culture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Parliament School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>UNO (United National Organisation) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Rules of the English East India Company From A.D.1773 - AD.1857 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Constitution School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Presidents of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Port of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Dams of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Water Falls School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mountains of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Rivers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamilnadu Rivers School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Ration Shop (Fair Price Shop) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamilnadu Corporation &amp; Its Activities School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Mountain Sources of Water School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Dams of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Festivals Of India School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Deepawali School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Pongal Pandigai School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>God's Chart School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Porkkaruvikal School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Kings Period Costumes &amp; Weapons School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Museum School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Exhibitions School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>National Symbols School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Symbols Of Tamilnadu School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>National Festivals School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Emblems Of Indian States School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>State Symbols Of India-1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Armed Forces School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Mother Terasa School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>First Woman School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Women Freedom Fighters School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Crimes Against Women School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Role of Tamil Nadu women in Indian Liberation War School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Womens At Work School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Indian Satellites School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Beach School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sceneries School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Seasons School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Landforms School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Natural Resources-1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Five Type Of Lands School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Five Natural Elements School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Natural &amp; Synthetic Fibres School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Cotton Products School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Clothing Materials School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Common Wear School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types &amp; Uses Of Plastics School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Plastic Products School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Rubber Products School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Light &amp; Its Properties School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Tamilnadu Industries &amp; Products-1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Bakery Products School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Production School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sources Of Power School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Wind Mills-2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Energies-2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Water School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Solar Energy School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Renewable &amp; Non Renewable Energy Sources School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>World Ocean School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Earth School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Energy-1 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Natural Resources &amp; Human Made Resources School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Windmills School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Energies School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Prevention Of Addiction, Heart Disease &amp; Obesity School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Building Materials School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Articles Made By Materials School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Electrical Appliances School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Metal, Non Metal &amp; Metalloids School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Furniture School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Hot &amp; Cold Objects School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Home appliances School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>My Home School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Varieties Of Utensils School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Solar System (Planets) School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Solar System-2 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Phases Of Moon School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Deltas School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Universal Creation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Man Of Space School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Universe School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Solar Systems-3 School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Islands School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Sky School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Rotation &amp; Revolution Of Earth School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Formation Of Earth School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Space School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Geographical Natures School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Various Measurements School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Tools School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Machines School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Solids, Liquids &amp; Gases School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Physical &amp; Chemical Changes School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Petroleum &amp; By Products Uses School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Methods Of Substances Separation School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Measurements School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Living Non Living School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Flammable &amp; Non Flammable School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Elements &amp; Compounds School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Conductor &amp; Non Conductor School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Types Of Clocks | School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Chemical Bonding School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Biodegradable &amp; Non Degradable Waste School Project Chart Stickers</t>
+  </si>
+  <si>
+    <t>Uses Of Acids, Bases &amp; Salts School Project Chart Stickers</t>
   </si>
 </sst>
 </file>
@@ -520,10 +1807,17 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,7 +1832,7 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FFCE9178"/>
+      <color rgb="FFDCDCAA"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -873,12 +2167,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -999,16 +2308,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,127 +2323,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1673,20 +2985,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="25.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="25.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1704,629 +3016,332 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="1" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="1" spans="2:3">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" customFormat="1" spans="2:3">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="7" customFormat="1" spans="2:3">
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" customFormat="1" spans="2:3">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" customFormat="1" spans="2:3">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" customFormat="1" spans="2:3">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" customFormat="1" spans="2:3">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="12" customFormat="1" spans="2:3">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="13" customFormat="1" spans="2:3">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="14" customFormat="1" spans="3:3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="15" customFormat="1" spans="2:3">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" customFormat="1" spans="2:3">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" customFormat="1" spans="2:3">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" customFormat="1" spans="2:3">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" customFormat="1" spans="2:3">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" customFormat="1" spans="2:3">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="21" customFormat="1" spans="2:3">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" customFormat="1" spans="2:3">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="23" customFormat="1" spans="2:3">
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="24" customFormat="1" spans="2:3">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="25" customFormat="1" spans="2:3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:3">
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="27" customFormat="1" spans="2:3">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="28" customFormat="1" spans="2:3">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="29" customFormat="1" spans="2:3">
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="30" customFormat="1" spans="2:3">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="31" customFormat="1" spans="2:3">
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="32" customFormat="1" spans="2:3">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="33" customFormat="1" spans="2:3">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="34" customFormat="1" spans="2:3">
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="35" customFormat="1" spans="2:3">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="36" customFormat="1" spans="2:3">
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="37" customFormat="1" spans="2:3">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="38" customFormat="1" spans="2:3">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
+    <row r="39" customFormat="1" spans="2:3">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
+    <row r="40" customFormat="1" spans="2:3">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
+    <row r="41" customFormat="1" spans="2:3">
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="42" customFormat="1" spans="2:3">
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="43" customFormat="1" spans="2:3">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="44" customFormat="1" spans="2:3">
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="45" customFormat="1" spans="2:3">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="46" customFormat="1" spans="2:3">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="47" customFormat="1" spans="2:3">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="48" customFormat="1" spans="2:3">
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="49" customFormat="1" spans="2:3">
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="50" customFormat="1" spans="2:3">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="51" customFormat="1" spans="2:3">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
+    <row r="52" customFormat="1" spans="2:3">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="53" customFormat="1" spans="2:3">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="54" customFormat="1" spans="2:3">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
+    <row r="55" customFormat="1" spans="2:3">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="56" customFormat="1" spans="2:3">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>111</v>
-      </c>
+    <row r="57" customFormat="1" spans="2:3">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="58" customFormat="1" spans="2:3">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
+    <row r="59" customFormat="1" spans="2:3">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
+    <row r="60" customFormat="1" spans="2:3">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
+    <row r="61" customFormat="1" spans="2:3">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
+    <row r="62" customFormat="1" spans="2:3">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
+    <row r="63" customFormat="1" spans="2:3">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" customFormat="1" spans="3:3">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" customFormat="1" spans="3:3">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" customFormat="1" spans="3:3">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" customFormat="1" spans="3:3">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" customFormat="1" spans="3:3">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" customFormat="1" spans="3:3">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" customFormat="1" spans="3:3">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" customFormat="1" spans="3:3">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" customFormat="1" spans="3:3">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" customFormat="1" spans="3:3">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" customFormat="1" spans="3:3">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" customFormat="1" spans="3:3">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" customFormat="1" spans="3:3">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" customFormat="1" spans="3:3">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" customFormat="1" spans="3:3">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" customFormat="1" spans="3:3">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" customFormat="1" spans="3:3">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" customFormat="1" spans="3:3">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" customFormat="1" spans="3:3">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" customFormat="1" spans="3:3">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" customFormat="1" spans="3:3">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" customFormat="1" spans="3:3">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" customFormat="1" spans="3:3">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" customFormat="1" spans="3:3">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" customFormat="1" spans="3:3">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" customFormat="1" spans="3:3">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" customFormat="1" spans="3:3">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" customFormat="1" spans="3:3">
       <c r="C91" s="1"/>
     </row>
   </sheetData>
@@ -2351,29 +3366,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2576,32 +3591,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2627,32 +3642,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2664,17 +3679,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:J562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="83.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="34.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="66.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
@@ -2684,226 +3699,3001 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>2051</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2052</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="1">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2053</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>2054</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>2055</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>159</v>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>2056</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>256</v>
       </c>
       <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>157</v>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3">
+      <c r="C510" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3">
+      <c r="C538" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3">
+      <c r="C539" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3">
+      <c r="C540" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3">
+      <c r="C541" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3">
+      <c r="C549" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3">
+      <c r="C550" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3">
+      <c r="C551" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3">
+      <c r="C552" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3">
+      <c r="C553" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3">
+      <c r="C555" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3">
+      <c r="C562" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +6719,7 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
@@ -2937,32 +6727,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
